--- a/src/romanovs.xlsx
+++ b/src/romanovs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8832" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8832" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -31,196 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="101">
-  <si>
-    <t>Михаил Фёдорович</t>
-  </si>
-  <si>
-    <t>Ирина Михайловна</t>
-  </si>
-  <si>
-    <t>Пелагея Михайловна</t>
-  </si>
-  <si>
-    <t>Алексей Михайлович</t>
-  </si>
-  <si>
-    <t>Дмитрий Алексеевич</t>
-  </si>
-  <si>
-    <t>Евдокия Алексеевна</t>
-  </si>
-  <si>
-    <t>Мафра Алексеевна</t>
-  </si>
-  <si>
-    <t>Алексей Алексеевич</t>
-  </si>
-  <si>
-    <t>Анна Алексеевна</t>
-  </si>
-  <si>
-    <t>Софья Алексеевна</t>
-  </si>
-  <si>
-    <t>Екатерина Алексеевна</t>
-  </si>
-  <si>
-    <t>Мария Алексеевна</t>
-  </si>
-  <si>
-    <t>Фёдор Алексеевич</t>
-  </si>
-  <si>
-    <t>Илья Фёдорович</t>
-  </si>
-  <si>
-    <t>Мария Иоанновна</t>
-  </si>
-  <si>
-    <t>Феодосия Иоанновна</t>
-  </si>
-  <si>
-    <t>Екатерина Иоанновна</t>
-  </si>
-  <si>
-    <t>Карл-Леопольд</t>
-  </si>
-  <si>
-    <t>Антон-Ульрих</t>
-  </si>
-  <si>
-    <t>Иоанн IV Антонович</t>
-  </si>
-  <si>
-    <t>Екатерина Антоновна</t>
-  </si>
-  <si>
-    <t>Елизавета Антоновна</t>
-  </si>
-  <si>
-    <t>Алексей Антонович</t>
-  </si>
-  <si>
-    <t>Анна Иоанновна</t>
-  </si>
-  <si>
-    <t>Прасковья Иоанновна</t>
-  </si>
-  <si>
-    <t>Алексей Петрович</t>
-  </si>
-  <si>
-    <t>Шарлотта-Кристина-София</t>
-  </si>
-  <si>
-    <t>Наталья Алексеевна</t>
-  </si>
-  <si>
-    <t>Александр Петрович</t>
-  </si>
-  <si>
-    <t>Павел Петрович</t>
-  </si>
-  <si>
-    <t>Екатерина Петровна</t>
-  </si>
-  <si>
-    <t>Анна Петровна</t>
-  </si>
-  <si>
-    <t>Карл-Фридрих</t>
-  </si>
-  <si>
-    <t>Павел I Петрович</t>
-  </si>
-  <si>
-    <t>Елизавета Петровна</t>
-  </si>
-  <si>
-    <t>Наталья Петровна</t>
-  </si>
-  <si>
-    <t>Маргарита Петровна</t>
-  </si>
-  <si>
-    <t>Пётр Петрович</t>
-  </si>
-  <si>
-    <t>Феодора Алексеевна</t>
-  </si>
-  <si>
-    <t>Анна Михайловна</t>
-  </si>
-  <si>
-    <t>Марфа Михайловна</t>
-  </si>
-  <si>
-    <t>Иоанн Михайлович</t>
-  </si>
-  <si>
-    <t>Софья Михайловна</t>
-  </si>
-  <si>
-    <t>Татьяна Михайловна</t>
-  </si>
-  <si>
-    <t>Евдокия Михайловна</t>
-  </si>
-  <si>
-    <t>Василий Михайлович</t>
-  </si>
-  <si>
-    <t>Феодосия Алексеевна</t>
-  </si>
-  <si>
-    <t>Симеон Алексеевич</t>
-  </si>
-  <si>
-    <t>Иоанн V Алексеевич</t>
-  </si>
-  <si>
-    <t>Пётр II Алексеевич</t>
-  </si>
-  <si>
-    <t>Пётр Антонович</t>
-  </si>
-  <si>
-    <t>Александр I Павлович</t>
-  </si>
-  <si>
-    <t>Константин Павлович</t>
-  </si>
-  <si>
-    <t>Александра Павловна</t>
-  </si>
-  <si>
-    <t>Елена Павловна</t>
-  </si>
-  <si>
-    <t>Иосиф-Антон</t>
-  </si>
-  <si>
-    <t>Фридрих-Людвиг</t>
-  </si>
-  <si>
-    <t>Мария Павловна</t>
-  </si>
-  <si>
-    <t>Екатерина Павловна</t>
-  </si>
-  <si>
-    <t>Ольга Павловна</t>
-  </si>
-  <si>
-    <t>Анна Павловна</t>
-  </si>
-  <si>
-    <t>Николай I Павлович</t>
-  </si>
-  <si>
-    <t>Михаил Павлович</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="126">
   <si>
     <t>name</t>
   </si>
@@ -228,12 +39,6 @@
     <t>year_born</t>
   </si>
   <si>
-    <t>Мария Долгорукова</t>
-  </si>
-  <si>
-    <t>Евдокия Стрешнева</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -243,63 +48,6 @@
     <t>position</t>
   </si>
   <si>
-    <t>Мария Милославская</t>
-  </si>
-  <si>
-    <t>Наталия Нарышкина</t>
-  </si>
-  <si>
-    <t>Агафья Грушецкая</t>
-  </si>
-  <si>
-    <t>Марфа Апраксина</t>
-  </si>
-  <si>
-    <t>Прасковья Салтыкова</t>
-  </si>
-  <si>
-    <t>Пётр I Алексеевич</t>
-  </si>
-  <si>
-    <t>Евдокия Лопухина</t>
-  </si>
-  <si>
-    <t>Екатерина I Алексеевна</t>
-  </si>
-  <si>
-    <t>Фридрих-Вильгельм</t>
-  </si>
-  <si>
-    <t>Иван Дмитриев-Мамонов</t>
-  </si>
-  <si>
-    <t>Анна Леопольдовна</t>
-  </si>
-  <si>
-    <t>Пётр III Фёдорович</t>
-  </si>
-  <si>
-    <t>Екатерина II Алексеевна</t>
-  </si>
-  <si>
-    <t>Наталия Алексеевна</t>
-  </si>
-  <si>
-    <t>Мария Фёдоровна</t>
-  </si>
-  <si>
-    <t>Елизавета Алексеевна</t>
-  </si>
-  <si>
-    <t>Анна Фёдоровна</t>
-  </si>
-  <si>
-    <t>Патриарх Филарет</t>
-  </si>
-  <si>
-    <t>Ксения Шестова</t>
-  </si>
-  <si>
     <t>year_show</t>
   </si>
   <si>
@@ -334,6 +82,333 @@
   </si>
   <si>
     <t>creator</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Ксения&lt;br&gt;Шестова</t>
+  </si>
+  <si>
+    <t>Патриарх&lt;br&gt;Филарет</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>unwknon</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>Михаил&lt;br&gt;Павлович</t>
+  </si>
+  <si>
+    <t>Александр I&lt;br&gt;Павлович</t>
+  </si>
+  <si>
+    <t>Елизавета&lt;br&gt;Алексеевна</t>
+  </si>
+  <si>
+    <t>Константин&lt;br&gt;Павлович</t>
+  </si>
+  <si>
+    <t>Анна&lt;br&gt;Фёдоровна</t>
+  </si>
+  <si>
+    <t>Александра&lt;br&gt;Павловна</t>
+  </si>
+  <si>
+    <t>Иосиф-&lt;br&gt;Антон</t>
+  </si>
+  <si>
+    <t>Елена&lt;br&gt;Павловна</t>
+  </si>
+  <si>
+    <t>Фридрих-&lt;br&gt;Людвиг</t>
+  </si>
+  <si>
+    <t>Мария&lt;br&gt;Павловна</t>
+  </si>
+  <si>
+    <t>Екатерина&lt;br&gt;Павловна</t>
+  </si>
+  <si>
+    <t>Ольга&lt;br&gt;Павловна</t>
+  </si>
+  <si>
+    <t>Анна&lt;br&gt;Павловна</t>
+  </si>
+  <si>
+    <t>Николай I&lt;br&gt;Павлович</t>
+  </si>
+  <si>
+    <t>Иоанн IV&lt;br&gt;Антонович</t>
+  </si>
+  <si>
+    <t>Екатерина&lt;br&gt;Антоновна</t>
+  </si>
+  <si>
+    <t>Елизавета&lt;br&gt;Антоновна</t>
+  </si>
+  <si>
+    <t>Пётр&lt;br&gt;Антонович</t>
+  </si>
+  <si>
+    <t>Алексей&lt;br&gt;Антонович</t>
+  </si>
+  <si>
+    <t>Павел I&lt;br&gt;Петрович</t>
+  </si>
+  <si>
+    <t>Наталия&lt;br&gt;Алексеевна</t>
+  </si>
+  <si>
+    <t>Мария&lt;br&gt;Фёдоровна</t>
+  </si>
+  <si>
+    <t>Анна&lt;br&gt;Леопольдовна</t>
+  </si>
+  <si>
+    <t>Антон-&lt;br&gt;Ульрих</t>
+  </si>
+  <si>
+    <t>Наталья&lt;br&gt;Алексеевна</t>
+  </si>
+  <si>
+    <t>Пётр II&lt;br&gt;Алексеевич</t>
+  </si>
+  <si>
+    <t>Пётр III&lt;br&gt;Фёдорович</t>
+  </si>
+  <si>
+    <t>Екатерина II&lt;br&gt;Алексеевна</t>
+  </si>
+  <si>
+    <t>Наталья&lt;br&gt;Петровна</t>
+  </si>
+  <si>
+    <t>Павел&lt;br&gt;Петрович</t>
+  </si>
+  <si>
+    <t>Пётр&lt;br&gt;Петрович</t>
+  </si>
+  <si>
+    <t>Маргарита&lt;br&gt;Петровна</t>
+  </si>
+  <si>
+    <t>Елизавета&lt;br&gt;Петровна</t>
+  </si>
+  <si>
+    <t>Карл-&lt;br&gt;Фридрих</t>
+  </si>
+  <si>
+    <t>Анна&lt;br&gt;Петровна</t>
+  </si>
+  <si>
+    <t>Екатерина&lt;br&gt;Петровна</t>
+  </si>
+  <si>
+    <t>Александр&lt;br&gt;Петрович</t>
+  </si>
+  <si>
+    <t>Алексей&lt;br&gt;Петрович</t>
+  </si>
+  <si>
+    <t>Шарлотта-&lt;br&gt;Кристина</t>
+  </si>
+  <si>
+    <t>Прасковья&lt;br&gt;Иоанновна</t>
+  </si>
+  <si>
+    <t>И. Дмитриев-&lt;br&gt;Мамонов</t>
+  </si>
+  <si>
+    <t>Анна&lt;br&gt;Иоанновна</t>
+  </si>
+  <si>
+    <t>Фридрих-&lt;br&gt;Вильгельм</t>
+  </si>
+  <si>
+    <t>Екатерина&lt;br&gt;Иоанновна</t>
+  </si>
+  <si>
+    <t>Карл-&lt;br&gt;Леопольд</t>
+  </si>
+  <si>
+    <t>Феодосия&lt;br&gt;Иоанновна</t>
+  </si>
+  <si>
+    <t>Мария&lt;br&gt;Иоанновна</t>
+  </si>
+  <si>
+    <t>Илья&lt;br&gt;Фёдорович</t>
+  </si>
+  <si>
+    <t>Феодора&lt;br&gt;Алексеевна</t>
+  </si>
+  <si>
+    <t>Екатерина I&lt;br&gt;Алексеевна</t>
+  </si>
+  <si>
+    <t>Пётр I&lt;br&gt;Алексеевич</t>
+  </si>
+  <si>
+    <t>Евдокия&lt;br&gt;Лопухина</t>
+  </si>
+  <si>
+    <t>Евдокия&lt;br&gt;Алексеевна</t>
+  </si>
+  <si>
+    <t>Иоанн V&lt;br&gt;Алексеевич</t>
+  </si>
+  <si>
+    <t>Прасковья&lt;br&gt;Салтыкова</t>
+  </si>
+  <si>
+    <t>Симеон&lt;br&gt;Алексеевич</t>
+  </si>
+  <si>
+    <t>Феодосия&lt;br&gt;Алексеевна</t>
+  </si>
+  <si>
+    <t>Марфа&lt;br&gt;Апраксина</t>
+  </si>
+  <si>
+    <t>Фёдор&lt;br&gt;Алексеевич</t>
+  </si>
+  <si>
+    <t>Агафья&lt;br&gt;Грушецкая</t>
+  </si>
+  <si>
+    <t>Мария&lt;br&gt;Алексеевна</t>
+  </si>
+  <si>
+    <t>Екатерина&lt;br&gt;Алексеевна</t>
+  </si>
+  <si>
+    <t>Софья&lt;br&gt;Алексеевна</t>
+  </si>
+  <si>
+    <t>Анна&lt;br&gt;Алексеевна</t>
+  </si>
+  <si>
+    <t>Алексей&lt;br&gt;Алексеевич</t>
+  </si>
+  <si>
+    <t>Мафра&lt;br&gt;Алексеевна</t>
+  </si>
+  <si>
+    <t>Дмитрий&lt;br&gt;Алексеевич</t>
+  </si>
+  <si>
+    <t>Ирина&lt;br&gt;Михайловна</t>
+  </si>
+  <si>
+    <t>Пелагея&lt;br&gt;Михайловна</t>
+  </si>
+  <si>
+    <t>Мария&lt;br&gt;Милославская</t>
+  </si>
+  <si>
+    <t>Алексей&lt;br&gt;Михайлович</t>
+  </si>
+  <si>
+    <t>Наталия&lt;br&gt;Нарышкина</t>
+  </si>
+  <si>
+    <t>Анна&lt;br&gt;Михайловна</t>
+  </si>
+  <si>
+    <t>Марфа&lt;br&gt;Михайловна</t>
+  </si>
+  <si>
+    <t>Иоанн&lt;br&gt;Михайлович</t>
+  </si>
+  <si>
+    <t>Софья&lt;br&gt;Михайловна</t>
+  </si>
+  <si>
+    <t>Татьяна&lt;br&gt;Михайловна</t>
+  </si>
+  <si>
+    <t>Евдокия&lt;br&gt;Михайловна</t>
+  </si>
+  <si>
+    <t>Василий&lt;br&gt;Михайлович</t>
+  </si>
+  <si>
+    <t>Мария&lt;br&gt;Долгорукова</t>
+  </si>
+  <si>
+    <t>Михаил&lt;br&gt;Фёдорович</t>
+  </si>
+  <si>
+    <t>Евдокия&lt;br&gt;Стрешнева</t>
   </si>
 </sst>
 </file>
@@ -384,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -422,6 +497,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -703,283 +781,307 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.77734375" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="4" width="10.88671875" style="13" customWidth="1"/>
-    <col min="5" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="16"/>
+    <col min="4" max="5" width="10.88671875" style="13" customWidth="1"/>
+    <col min="6" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>96</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="C2" s="16">
+        <v>0</v>
+      </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="E2" s="5"/>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3">
         <v>1553</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>1633</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="3">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3">
         <v>1395</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="5">
+        <v>22</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5">
         <v>0</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3">
         <v>1603</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>1631</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="3">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3">
         <v>1465</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="4" width="10.44140625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="16" customWidth="1"/>
+    <col min="4" max="5" width="10.44140625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>96</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>3</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="6">
+        <v>123</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="6">
         <v>2</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1624</v>
       </c>
       <c r="F2" s="6">
         <v>1624</v>
       </c>
       <c r="G2" s="6">
+        <v>1624</v>
+      </c>
+      <c r="H2" s="6">
         <v>1625</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="I2" s="5"/>
+      <c r="I2" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-      <c r="L2" s="5">
+      <c r="L2" s="5"/>
+      <c r="M2" s="5">
         <v>1360</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="6">
+        <v>124</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6">
         <v>1</v>
       </c>
-      <c r="E3" s="6">
+      <c r="F3" s="6">
         <v>1596</v>
       </c>
-      <c r="F3" s="9">
+      <c r="G3" s="9">
         <v>1596</v>
       </c>
-      <c r="G3" s="6">
+      <c r="H3" s="6">
         <v>1645</v>
       </c>
-      <c r="H3" s="6">
+      <c r="I3" s="6">
         <v>49</v>
       </c>
-      <c r="I3" s="6">
+      <c r="J3" s="6">
         <v>1613</v>
       </c>
-      <c r="J3" s="6">
+      <c r="K3" s="6">
         <v>1645</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="L3" s="6">
+      <c r="L3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="6">
         <v>1430</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>4</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="6">
+        <v>125</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6">
         <v>2</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1626</v>
       </c>
       <c r="F4" s="6">
         <v>1626</v>
       </c>
       <c r="G4" s="6">
+        <v>1626</v>
+      </c>
+      <c r="H4" s="6">
         <v>1645</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="5">
+      <c r="L4" s="5"/>
+      <c r="M4" s="5">
         <v>1500</v>
       </c>
     </row>
@@ -990,449 +1092,489 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="4" width="15.109375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" customWidth="1"/>
-    <col min="9" max="10" width="10.6640625" customWidth="1"/>
-    <col min="11" max="12" width="8.88671875" style="13"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" style="16" customWidth="1"/>
+    <col min="4" max="5" width="15.109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" customWidth="1"/>
+    <col min="10" max="11" width="10.6640625" customWidth="1"/>
+    <col min="12" max="13" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>96</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>5</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="6">
+        <v>111</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="6">
         <v>4</v>
       </c>
-      <c r="E2" s="6">
+      <c r="F2" s="6">
         <v>1627</v>
       </c>
-      <c r="F2" s="9">
+      <c r="G2" s="9">
         <v>1627</v>
       </c>
-      <c r="G2" s="6">
+      <c r="H2" s="6">
         <v>1679</v>
       </c>
-      <c r="H2" s="7">
+      <c r="I2" s="7">
         <v>51</v>
       </c>
-      <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12">
+      <c r="K2" s="3"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12">
         <v>1055</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>6</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="6">
+        <v>112</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6">
         <v>4</v>
       </c>
-      <c r="E3" s="6">
+      <c r="F3" s="6">
         <v>1628</v>
       </c>
-      <c r="F3" s="9">
+      <c r="G3" s="9">
         <v>1628</v>
       </c>
-      <c r="G3" s="6">
+      <c r="H3" s="6">
         <v>1629</v>
       </c>
-      <c r="H3" s="7">
+      <c r="I3" s="7">
         <v>0</v>
       </c>
-      <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12">
+      <c r="K3" s="3"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12">
         <v>1130</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>7</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="6">
+        <v>113</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="6">
         <v>8</v>
       </c>
-      <c r="E4" s="6">
+      <c r="F4" s="6">
         <v>1626</v>
       </c>
-      <c r="F4" s="6">
+      <c r="G4" s="6">
         <v>1648</v>
       </c>
-      <c r="G4" s="6">
+      <c r="H4" s="6">
         <v>1669</v>
       </c>
-      <c r="H4" s="7">
+      <c r="I4" s="7">
         <v>42</v>
       </c>
-      <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12">
+      <c r="K4" s="3"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12">
         <v>1210</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>8</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="6">
+        <v>114</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6">
         <v>4</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1629</v>
       </c>
       <c r="F5" s="6">
         <v>1629</v>
       </c>
       <c r="G5" s="6">
+        <v>1629</v>
+      </c>
+      <c r="H5" s="6">
         <v>1676</v>
       </c>
-      <c r="H5" s="7">
+      <c r="I5" s="7">
         <v>46</v>
       </c>
-      <c r="I5" s="7">
+      <c r="J5" s="7">
         <v>1645</v>
       </c>
-      <c r="J5" s="7">
+      <c r="K5" s="7">
         <v>1676</v>
       </c>
-      <c r="K5" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="L5" s="12">
+      <c r="L5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="12">
         <v>1280</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>9</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="6">
+        <v>115</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="6">
         <v>8</v>
       </c>
-      <c r="E6" s="6">
+      <c r="F6" s="6">
         <v>1651</v>
       </c>
-      <c r="F6" s="6">
+      <c r="G6" s="6">
         <v>1671</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="6">
         <v>1694</v>
       </c>
-      <c r="H6" s="7">
+      <c r="I6" s="7">
         <v>42</v>
       </c>
-      <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12">
+      <c r="K6" s="3"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12">
         <v>1350</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>10</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="6">
+        <v>116</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="6">
         <v>4</v>
       </c>
-      <c r="E7" s="6">
+      <c r="F7" s="6">
         <v>1630</v>
       </c>
-      <c r="F7" s="9">
+      <c r="G7" s="9">
         <v>1630</v>
       </c>
-      <c r="G7" s="6">
+      <c r="H7" s="6">
         <v>1692</v>
       </c>
-      <c r="H7" s="7">
+      <c r="I7" s="7">
         <v>62</v>
       </c>
-      <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12">
+      <c r="K7" s="3"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12">
         <v>1430</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>11</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="6">
+        <v>117</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="6">
         <v>4</v>
       </c>
-      <c r="E8" s="6">
+      <c r="F8" s="6">
         <v>1631</v>
       </c>
-      <c r="F8" s="9">
+      <c r="G8" s="9">
         <v>1631</v>
       </c>
-      <c r="G8" s="6">
+      <c r="H8" s="6">
         <v>1632</v>
       </c>
-      <c r="H8" s="7">
+      <c r="I8" s="7">
         <v>1</v>
       </c>
-      <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12">
+      <c r="K8" s="3"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12">
         <v>1505</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>12</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="7">
+        <v>118</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="7">
         <v>4</v>
       </c>
-      <c r="E9" s="7">
+      <c r="F9" s="7">
         <v>1633</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <v>1633</v>
       </c>
-      <c r="G9" s="7">
+      <c r="H9" s="7">
         <v>1639</v>
       </c>
-      <c r="H9" s="7">
+      <c r="I9" s="7">
         <v>5</v>
       </c>
-      <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12">
+      <c r="K9" s="3"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12">
         <v>1580</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>13</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="7">
+        <v>119</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="7">
         <v>4</v>
       </c>
-      <c r="E10" s="7">
+      <c r="F10" s="7">
         <v>1634</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="5">
         <v>1634</v>
       </c>
-      <c r="G10" s="7">
+      <c r="H10" s="7">
         <v>1636</v>
       </c>
-      <c r="H10" s="7">
+      <c r="I10" s="7">
         <v>1</v>
       </c>
-      <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12">
+      <c r="K10" s="3"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12">
         <v>1655</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>14</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="7">
+        <v>120</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="7">
         <v>4</v>
       </c>
-      <c r="E11" s="7">
+      <c r="F11" s="7">
         <v>1636</v>
       </c>
-      <c r="F11" s="5">
+      <c r="G11" s="5">
         <v>1636</v>
       </c>
-      <c r="G11" s="7">
+      <c r="H11" s="7">
         <v>1706</v>
       </c>
-      <c r="H11" s="7">
+      <c r="I11" s="7">
         <v>70</v>
       </c>
-      <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12">
+      <c r="K11" s="3"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12">
         <v>1730</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>15</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="7">
+        <v>121</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="7">
         <v>4</v>
       </c>
-      <c r="E12" s="7">
+      <c r="F12" s="7">
         <v>1637</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G12" s="5">
         <v>1637</v>
       </c>
-      <c r="G12" s="7">
+      <c r="H12" s="7">
         <v>1637</v>
       </c>
-      <c r="H12" s="7">
+      <c r="I12" s="7">
         <v>0</v>
       </c>
-      <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12">
+      <c r="K12" s="3"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12">
         <v>1805</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>16</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="7">
+        <v>122</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="7">
         <v>4</v>
       </c>
-      <c r="E13" s="7">
+      <c r="F13" s="7">
         <v>1639</v>
       </c>
-      <c r="F13" s="5">
+      <c r="G13" s="5">
         <v>1639</v>
       </c>
-      <c r="G13" s="7">
+      <c r="H13" s="7">
         <v>1639</v>
       </c>
-      <c r="H13" s="7">
+      <c r="I13" s="7">
         <v>0</v>
       </c>
-      <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12">
+      <c r="K13" s="3"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12">
         <v>1880</v>
       </c>
     </row>
@@ -1444,765 +1586,832 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.21875" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" customWidth="1"/>
-    <col min="11" max="11" width="9" style="13" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="13"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12" style="16" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" customWidth="1"/>
+    <col min="12" max="12" width="9" style="13" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>96</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="7">
+        <v>110</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="7">
         <v>7</v>
       </c>
-      <c r="E2" s="7">
+      <c r="F2" s="7">
         <v>1648</v>
       </c>
-      <c r="F2" s="5">
+      <c r="G2" s="5">
         <v>1648</v>
       </c>
-      <c r="G2" s="7">
+      <c r="H2" s="7">
         <v>1649</v>
       </c>
-      <c r="H2" s="7">
+      <c r="I2" s="7">
         <v>0</v>
       </c>
-      <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12">
+      <c r="K2" s="3"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>18</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="7">
+        <v>96</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7">
         <v>7</v>
       </c>
-      <c r="E3" s="7">
+      <c r="F3" s="7">
         <v>1650</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>1650</v>
       </c>
-      <c r="G3" s="7">
+      <c r="H3" s="7">
         <v>1712</v>
       </c>
-      <c r="H3" s="7">
+      <c r="I3" s="7">
         <v>62</v>
       </c>
-      <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12">
+      <c r="K3" s="3"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>19</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="7">
+        <v>109</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="7">
         <v>7</v>
       </c>
-      <c r="E4" s="7">
+      <c r="F4" s="7">
         <v>1652</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>1652</v>
       </c>
-      <c r="G4" s="6">
+      <c r="H4" s="6">
         <v>1707</v>
       </c>
-      <c r="H4" s="7">
+      <c r="I4" s="7">
         <v>54</v>
       </c>
-      <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12">
+      <c r="K4" s="3"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>20</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="7">
         <v>7</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="7">
-        <v>7</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="F5" s="7">
         <v>1654</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>1654</v>
       </c>
-      <c r="G5" s="7">
+      <c r="H5" s="7">
         <v>1670</v>
       </c>
-      <c r="H5" s="7">
+      <c r="I5" s="7">
         <v>15</v>
       </c>
-      <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12">
+      <c r="K5" s="3"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12">
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>21</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="7">
+        <v>107</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="7">
         <v>7</v>
       </c>
-      <c r="E6" s="7">
+      <c r="F6" s="7">
         <v>1655</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <v>1655</v>
       </c>
-      <c r="G6" s="7">
+      <c r="H6" s="7">
         <v>1659</v>
       </c>
-      <c r="H6" s="7">
+      <c r="I6" s="7">
         <v>4</v>
       </c>
-      <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12">
+      <c r="K6" s="3"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12">
         <v>305</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>22</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="7">
+        <v>106</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="7">
         <v>7</v>
       </c>
-      <c r="E7" s="7">
+      <c r="F7" s="7">
         <v>1657</v>
       </c>
-      <c r="F7" s="9">
+      <c r="G7" s="9">
         <v>1657</v>
       </c>
-      <c r="G7" s="7">
+      <c r="H7" s="7">
         <v>1704</v>
       </c>
-      <c r="H7" s="7">
+      <c r="I7" s="7">
         <v>46</v>
       </c>
-      <c r="I7" s="7">
+      <c r="J7" s="7">
         <v>1682</v>
       </c>
-      <c r="J7" s="7">
+      <c r="K7" s="7">
         <v>1689</v>
       </c>
-      <c r="K7" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="L7" s="7">
+      <c r="L7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="7">
         <v>380</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>23</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="7">
+        <v>105</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="7">
         <v>7</v>
       </c>
-      <c r="E8" s="7">
+      <c r="F8" s="7">
         <v>1658</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <v>1658</v>
       </c>
-      <c r="G8" s="7">
+      <c r="H8" s="7">
         <v>1718</v>
       </c>
-      <c r="H8" s="7">
+      <c r="I8" s="7">
         <v>59</v>
       </c>
-      <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12">
+      <c r="K8" s="3"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12">
         <v>455</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>25</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="7">
+        <v>104</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="7">
         <v>7</v>
       </c>
-      <c r="E9" s="7">
+      <c r="F9" s="7">
         <v>1660</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <v>1660</v>
       </c>
-      <c r="G9" s="7">
+      <c r="H9" s="7">
         <v>1723</v>
       </c>
-      <c r="H9" s="7">
+      <c r="I9" s="7">
         <v>63</v>
       </c>
-      <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12">
+      <c r="K9" s="3"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12">
         <v>530</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>26</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="7">
+        <v>103</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="7">
         <v>24</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="7">
+      <c r="F10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="7">
         <v>1680</v>
       </c>
-      <c r="G10" s="7">
+      <c r="H10" s="7">
         <v>1681</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J10" s="3"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12">
+      <c r="K10" s="3"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12">
         <v>610</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>24</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="7">
+        <v>102</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="7">
         <v>7</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1661</v>
       </c>
       <c r="F11" s="7">
         <v>1661</v>
       </c>
       <c r="G11" s="7">
+        <v>1661</v>
+      </c>
+      <c r="H11" s="7">
         <v>1682</v>
       </c>
-      <c r="H11" s="7">
+      <c r="I11" s="7">
         <v>20</v>
       </c>
-      <c r="I11" s="7">
+      <c r="J11" s="7">
         <v>1676</v>
       </c>
-      <c r="J11" s="7">
+      <c r="K11" s="7">
         <v>1682</v>
       </c>
-      <c r="K11" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="L11" s="7">
+      <c r="L11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="7">
         <v>680</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>27</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="7">
+        <v>101</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="7">
         <v>24</v>
       </c>
-      <c r="E12" s="7">
+      <c r="F12" s="7">
         <v>1664</v>
       </c>
-      <c r="F12" s="7">
+      <c r="G12" s="7">
         <v>1682</v>
       </c>
-      <c r="G12" s="7">
+      <c r="H12" s="7">
         <v>1715</v>
       </c>
-      <c r="H12" s="7">
+      <c r="I12" s="7">
         <v>51</v>
       </c>
-      <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12">
+      <c r="K12" s="3"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12">
         <v>750</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>28</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="7">
+        <v>100</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="7">
         <v>7</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1662</v>
       </c>
       <c r="F13" s="5">
         <v>1662</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="5">
+        <v>1662</v>
+      </c>
+      <c r="H13" s="7">
         <v>1713</v>
       </c>
-      <c r="H13" s="7">
+      <c r="I13" s="7">
         <v>51</v>
       </c>
-      <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12">
+      <c r="K13" s="3"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12">
         <v>830</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>29</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="7">
+        <v>99</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="7">
         <v>7</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1665</v>
       </c>
       <c r="F14" s="5">
         <v>1665</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="5">
+        <v>1665</v>
+      </c>
+      <c r="H14" s="7">
         <v>1669</v>
       </c>
-      <c r="H14" s="7">
+      <c r="I14" s="7">
         <v>4</v>
       </c>
-      <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12">
+      <c r="K14" s="3"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12">
         <v>905</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>31</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="7">
+      <c r="C15" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="7">
         <v>30</v>
       </c>
-      <c r="E15" s="7">
+      <c r="F15" s="7">
         <v>1664</v>
       </c>
-      <c r="F15" s="7">
+      <c r="G15" s="7">
         <v>1684</v>
       </c>
-      <c r="G15" s="7">
+      <c r="H15" s="7">
         <v>1723</v>
       </c>
-      <c r="H15" s="7">
+      <c r="I15" s="7">
         <v>59</v>
       </c>
-      <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12">
+      <c r="K15" s="3"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12">
         <v>980</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>30</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="7">
+      <c r="C16" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="7">
         <v>7</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1666</v>
       </c>
       <c r="F16" s="7">
         <v>1666</v>
       </c>
       <c r="G16" s="7">
+        <v>1666</v>
+      </c>
+      <c r="H16" s="7">
         <v>1696</v>
       </c>
-      <c r="H16" s="7">
+      <c r="I16" s="7">
         <v>29</v>
       </c>
-      <c r="I16" s="7">
+      <c r="J16" s="7">
         <v>1682</v>
       </c>
-      <c r="J16" s="7">
+      <c r="K16" s="7">
         <v>1696</v>
       </c>
-      <c r="K16" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="L16" s="7">
+      <c r="L16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="7">
         <v>1050</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>32</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="7">
+        <v>96</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="7">
         <v>7</v>
       </c>
-      <c r="E17" s="7">
+      <c r="F17" s="7">
         <v>1669</v>
       </c>
-      <c r="F17" s="5">
+      <c r="G17" s="5">
         <v>1669</v>
       </c>
-      <c r="G17" s="7">
+      <c r="H17" s="7">
         <v>1669</v>
       </c>
-      <c r="H17" s="7">
+      <c r="I17" s="7">
         <v>0</v>
       </c>
-      <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12">
+      <c r="K17" s="3"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12">
         <v>1130</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>36</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="7">
+        <v>95</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="7">
         <v>33</v>
       </c>
-      <c r="E18" s="7">
+      <c r="F18" s="7">
         <v>1669</v>
       </c>
-      <c r="F18" s="7">
+      <c r="G18" s="7">
         <v>1689</v>
       </c>
-      <c r="G18" s="7">
+      <c r="H18" s="7">
         <v>1731</v>
       </c>
-      <c r="H18" s="7">
+      <c r="I18" s="7">
         <v>62</v>
       </c>
-      <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12">
+      <c r="K18" s="3"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12">
         <v>1435</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>33</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="7">
+        <v>94</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="7">
         <v>9</v>
       </c>
-      <c r="E19" s="7">
+      <c r="F19" s="7">
         <v>1672</v>
       </c>
-      <c r="F19" s="6">
+      <c r="G19" s="6">
         <v>1672</v>
       </c>
-      <c r="G19" s="7">
+      <c r="H19" s="7">
         <v>1725</v>
       </c>
-      <c r="H19" s="7">
+      <c r="I19" s="7">
         <v>52</v>
       </c>
-      <c r="I19" s="7">
+      <c r="J19" s="7">
         <v>1682</v>
       </c>
-      <c r="J19" s="7">
+      <c r="K19" s="7">
         <v>1725</v>
       </c>
-      <c r="K19" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="L19" s="7">
+      <c r="L19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="7">
         <v>1505</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>35</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="7">
+        <v>93</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="7">
         <v>33</v>
       </c>
-      <c r="E20" s="7">
+      <c r="F20" s="7">
         <v>1684</v>
       </c>
-      <c r="F20" s="7">
+      <c r="G20" s="7">
         <v>1702</v>
       </c>
-      <c r="G20" s="7">
+      <c r="H20" s="7">
         <v>1727</v>
       </c>
-      <c r="H20" s="7">
+      <c r="I20" s="7">
         <v>42</v>
       </c>
-      <c r="I20" s="7">
+      <c r="J20" s="7">
         <v>1725</v>
       </c>
-      <c r="J20" s="7">
+      <c r="K20" s="7">
         <v>1727</v>
       </c>
-      <c r="K20" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="L20" s="7">
+      <c r="L20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20" s="7">
         <v>1575</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>34</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="7">
+        <v>68</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="7">
         <v>9</v>
       </c>
-      <c r="E21" s="7">
+      <c r="F21" s="7">
         <v>1673</v>
       </c>
-      <c r="F21" s="5">
+      <c r="G21" s="5">
         <v>1673</v>
       </c>
-      <c r="G21" s="7">
+      <c r="H21" s="7">
         <v>1716</v>
       </c>
-      <c r="H21" s="7">
+      <c r="I21" s="7">
         <v>42</v>
       </c>
-      <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12">
+      <c r="K21" s="3"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12">
         <v>1655</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>37</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="7">
+        <v>92</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="7">
         <v>9</v>
       </c>
-      <c r="E22" s="7">
+      <c r="F22" s="7">
         <v>1674</v>
       </c>
-      <c r="F22" s="5">
+      <c r="G22" s="5">
         <v>1674</v>
       </c>
-      <c r="G22" s="7">
+      <c r="H22" s="7">
         <v>1677</v>
       </c>
-      <c r="H22" s="7">
+      <c r="I22" s="7">
         <v>3</v>
       </c>
-      <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="7">
+      <c r="K22" s="3"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="7">
         <v>1730</v>
       </c>
     </row>
@@ -2213,809 +2422,882 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5546875" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="4" width="12.88671875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.21875" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" customWidth="1"/>
-    <col min="11" max="12" width="8.88671875" style="13"/>
+    <col min="3" max="3" width="11.21875" style="5" customWidth="1"/>
+    <col min="4" max="5" width="12.88671875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" customWidth="1"/>
+    <col min="12" max="13" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>38</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="7">
+        <v>91</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="7">
         <v>26</v>
       </c>
-      <c r="E2" s="7">
+      <c r="F2" s="7">
         <v>1681</v>
       </c>
-      <c r="F2" s="5">
+      <c r="G2" s="5">
         <v>1681</v>
       </c>
-      <c r="G2" s="7">
+      <c r="H2" s="7">
         <v>1681</v>
       </c>
-      <c r="H2" s="7">
+      <c r="I2" s="7">
         <v>0</v>
       </c>
-      <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12">
+      <c r="K2" s="3"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12">
         <v>645</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>39</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="7">
+        <v>90</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7">
         <v>31</v>
       </c>
-      <c r="E3" s="7">
+      <c r="F3" s="7">
         <v>1689</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>1689</v>
       </c>
-      <c r="G3" s="7">
+      <c r="H3" s="7">
         <v>1692</v>
       </c>
-      <c r="H3" s="7">
+      <c r="I3" s="7">
         <v>2</v>
       </c>
-      <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12">
+      <c r="K3" s="3"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12">
         <v>715</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>40</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="7">
+        <v>89</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="7">
         <v>31</v>
       </c>
-      <c r="E4" s="7">
+      <c r="F4" s="7">
         <v>1690</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>1690</v>
       </c>
-      <c r="G4" s="7">
+      <c r="H4" s="7">
         <v>1691</v>
       </c>
-      <c r="H4" s="7">
+      <c r="I4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12">
+      <c r="K4" s="3"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12">
         <v>790</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>43</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="7">
+        <v>88</v>
+      </c>
+      <c r="C5" s="5">
+        <v>43</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="7">
         <v>41</v>
       </c>
-      <c r="E5" s="6">
+      <c r="F5" s="6">
         <v>1678</v>
       </c>
-      <c r="F5" s="6">
+      <c r="G5" s="6">
         <v>1716</v>
       </c>
-      <c r="G5" s="6">
+      <c r="H5" s="6">
         <v>1747</v>
       </c>
-      <c r="H5" s="7">
+      <c r="I5" s="7">
         <v>69</v>
       </c>
-      <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12">
+      <c r="K5" s="3"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12">
         <v>935</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>41</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="7">
+        <v>87</v>
+      </c>
+      <c r="C6" s="5">
+        <v>41</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="7">
         <v>31</v>
       </c>
-      <c r="E6" s="7">
+      <c r="F6" s="7">
         <v>1691</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <v>1691</v>
       </c>
-      <c r="G6" s="7">
+      <c r="H6" s="7">
         <v>1733</v>
       </c>
-      <c r="H6" s="7">
+      <c r="I6" s="7">
         <v>41</v>
       </c>
-      <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12">
+      <c r="K6" s="3"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12">
         <v>865</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>44</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="7">
+        <v>86</v>
+      </c>
+      <c r="C7" s="5">
+        <v>44</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
         <v>42</v>
       </c>
-      <c r="E7" s="6">
+      <c r="F7" s="6">
         <v>1692</v>
       </c>
-      <c r="F7" s="6">
+      <c r="G7" s="6">
         <v>1710</v>
       </c>
-      <c r="G7" s="6">
+      <c r="H7" s="6">
         <v>1711</v>
       </c>
-      <c r="H7" s="7">
+      <c r="I7" s="7">
         <v>18</v>
       </c>
-      <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12">
+      <c r="K7" s="3"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12">
         <v>1085</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>42</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="7">
+        <v>85</v>
+      </c>
+      <c r="C8" s="5">
+        <v>42</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="7">
         <v>31</v>
       </c>
-      <c r="E8" s="7">
+      <c r="F8" s="7">
         <v>1693</v>
       </c>
-      <c r="F8" s="9">
+      <c r="G8" s="9">
         <v>1693</v>
       </c>
-      <c r="G8" s="7">
+      <c r="H8" s="7">
         <v>1740</v>
       </c>
-      <c r="H8" s="7">
+      <c r="I8" s="7">
         <v>47</v>
       </c>
-      <c r="I8" s="7">
+      <c r="J8" s="7">
         <v>1730</v>
       </c>
-      <c r="J8" s="7">
+      <c r="K8" s="7">
         <v>1740</v>
       </c>
-      <c r="K8" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="L8" s="7">
+      <c r="L8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="7">
         <v>1015</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>46</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="7">
+        <v>84</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="7">
         <v>45</v>
       </c>
-      <c r="E9" s="7">
+      <c r="F9" s="7">
         <v>1680</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <v>1723</v>
       </c>
-      <c r="G9" s="7">
+      <c r="H9" s="7">
         <v>1730</v>
       </c>
-      <c r="H9" s="7">
+      <c r="I9" s="7">
         <v>49</v>
       </c>
-      <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12">
+      <c r="K9" s="3"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12">
         <v>1235</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>45</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="7">
+        <v>83</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="7">
         <v>31</v>
       </c>
-      <c r="E10" s="7">
+      <c r="F10" s="7">
         <v>1694</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="5">
         <v>1694</v>
       </c>
-      <c r="G10" s="7">
+      <c r="H10" s="7">
         <v>1731</v>
       </c>
-      <c r="H10" s="7">
+      <c r="I10" s="7">
         <v>37</v>
       </c>
-      <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12">
+      <c r="K10" s="3"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12">
         <v>1165</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>48</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="7">
+        <v>82</v>
+      </c>
+      <c r="C11" s="5">
+        <v>48</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="7">
         <v>47</v>
       </c>
-      <c r="E11" s="6">
+      <c r="F11" s="6">
         <v>1694</v>
       </c>
-      <c r="F11" s="5">
+      <c r="G11" s="5">
         <v>1711</v>
       </c>
-      <c r="G11" s="6">
+      <c r="H11" s="6">
         <v>1715</v>
       </c>
-      <c r="H11" s="7">
+      <c r="I11" s="7">
         <v>21</v>
       </c>
-      <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12">
+      <c r="K11" s="3"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12">
         <v>1325</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>47</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="7">
+        <v>81</v>
+      </c>
+      <c r="C12" s="5">
+        <v>47</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="7">
         <v>36</v>
       </c>
-      <c r="E12" s="7">
+      <c r="F12" s="7">
         <v>1690</v>
       </c>
-      <c r="F12" s="6">
+      <c r="G12" s="6">
         <v>1690</v>
       </c>
-      <c r="G12" s="7">
+      <c r="H12" s="7">
         <v>1718</v>
       </c>
-      <c r="H12" s="7">
+      <c r="I12" s="7">
         <v>28</v>
       </c>
-      <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12">
+      <c r="K12" s="3"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12">
         <v>1395</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>49</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="7">
+        <v>80</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="7">
         <v>36</v>
       </c>
-      <c r="E13" s="7">
+      <c r="F13" s="7">
         <v>1691</v>
       </c>
-      <c r="F13" s="5">
+      <c r="G13" s="5">
         <v>1691</v>
       </c>
-      <c r="G13" s="7">
+      <c r="H13" s="7">
         <v>1692</v>
       </c>
-      <c r="H13" s="7">
+      <c r="I13" s="7">
         <v>0</v>
       </c>
-      <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12">
+      <c r="K13" s="3"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12">
         <v>1470</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>50</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="7">
+        <v>74</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="7">
         <v>35</v>
       </c>
-      <c r="E14" s="6">
+      <c r="F14" s="6">
         <v>1704</v>
       </c>
-      <c r="F14" s="5">
+      <c r="G14" s="5">
         <v>1704</v>
       </c>
-      <c r="G14" s="6">
+      <c r="H14" s="6">
         <v>1707</v>
       </c>
-      <c r="H14" s="7">
+      <c r="I14" s="7">
         <v>3</v>
       </c>
-      <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12">
+      <c r="K14" s="3"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12">
         <v>1540</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>51</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="7">
+        <v>73</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="7">
         <v>35</v>
       </c>
-      <c r="E15" s="6">
+      <c r="F15" s="6">
         <v>1705</v>
       </c>
-      <c r="F15" s="5">
+      <c r="G15" s="5">
         <v>1705</v>
       </c>
-      <c r="G15" s="6">
+      <c r="H15" s="6">
         <v>1707</v>
       </c>
-      <c r="H15" s="7">
+      <c r="I15" s="7">
         <v>2</v>
       </c>
-      <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12">
+      <c r="K15" s="3"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12">
         <v>1615</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>52</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="7">
+        <v>79</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="7">
         <v>35</v>
       </c>
-      <c r="E16" s="7">
+      <c r="F16" s="7">
         <v>1706</v>
       </c>
-      <c r="F16" s="5">
+      <c r="G16" s="5">
         <v>1706</v>
       </c>
-      <c r="G16" s="7">
+      <c r="H16" s="7">
         <v>1708</v>
       </c>
-      <c r="H16" s="7">
+      <c r="I16" s="7">
         <v>1</v>
       </c>
-      <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12">
+      <c r="K16" s="3"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12">
         <v>1690</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>53</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="7">
+        <v>78</v>
+      </c>
+      <c r="C17" s="5">
+        <v>53</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="7">
         <v>35</v>
       </c>
-      <c r="E17" s="7">
+      <c r="F17" s="7">
         <v>1708</v>
       </c>
-      <c r="F17" s="5">
+      <c r="G17" s="5">
         <v>1708</v>
       </c>
-      <c r="G17" s="6">
+      <c r="H17" s="6">
         <v>1728</v>
       </c>
-      <c r="H17" s="7">
+      <c r="I17" s="7">
         <v>20</v>
       </c>
-      <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12">
+      <c r="K17" s="3"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12">
         <v>1765</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>54</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="7">
+        <v>77</v>
+      </c>
+      <c r="C18" s="5">
+        <v>54</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="7">
         <v>53</v>
       </c>
-      <c r="E18" s="6">
+      <c r="F18" s="6">
         <v>1700</v>
       </c>
-      <c r="F18" s="6">
+      <c r="G18" s="6">
         <v>1725</v>
       </c>
-      <c r="G18" s="6">
+      <c r="H18" s="6">
         <v>1739</v>
       </c>
-      <c r="H18" s="7">
+      <c r="I18" s="7">
         <v>39</v>
       </c>
-      <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12">
+      <c r="K18" s="3"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12">
         <v>1835</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>55</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="7">
+        <v>76</v>
+      </c>
+      <c r="C19" s="5">
+        <v>55</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="7">
         <v>35</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1709</v>
       </c>
       <c r="F19" s="7">
         <v>1709</v>
       </c>
       <c r="G19" s="7">
+        <v>1709</v>
+      </c>
+      <c r="H19" s="7">
         <v>1761</v>
       </c>
-      <c r="H19" s="7">
+      <c r="I19" s="7">
         <v>52</v>
       </c>
-      <c r="I19" s="7">
+      <c r="J19" s="7">
         <v>1741</v>
       </c>
-      <c r="J19" s="7">
+      <c r="K19" s="7">
         <v>1761</v>
       </c>
-      <c r="K19" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="L19" s="7">
+      <c r="L19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="7">
         <v>1915</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>56</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="7">
         <v>35</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="7">
-        <v>35</v>
-      </c>
-      <c r="E20" s="7">
+      <c r="F20" s="7">
         <v>1713</v>
       </c>
-      <c r="F20" s="5">
+      <c r="G20" s="5">
         <v>1713</v>
       </c>
-      <c r="G20" s="7">
+      <c r="H20" s="7">
         <v>1715</v>
       </c>
-      <c r="H20" s="7">
+      <c r="I20" s="7">
         <v>2</v>
       </c>
-      <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12">
+      <c r="K20" s="3"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12">
         <v>1990</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>57</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="7">
+        <v>75</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="7">
         <v>35</v>
       </c>
-      <c r="E21" s="7">
+      <c r="F21" s="7">
         <v>1714</v>
       </c>
-      <c r="F21" s="5">
+      <c r="G21" s="5">
         <v>1714</v>
       </c>
-      <c r="G21" s="7">
+      <c r="H21" s="7">
         <v>1715</v>
       </c>
-      <c r="H21" s="7">
+      <c r="I21" s="7">
         <v>0</v>
       </c>
-      <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12">
+      <c r="K21" s="3"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12">
         <v>2065</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>58</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="7">
+        <v>74</v>
+      </c>
+      <c r="C22" s="5">
+        <v>58</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="7">
         <v>35</v>
       </c>
-      <c r="E22" s="7">
+      <c r="F22" s="7">
         <v>1715</v>
       </c>
-      <c r="F22" s="5">
+      <c r="G22" s="5">
         <v>1715</v>
       </c>
-      <c r="G22" s="7">
+      <c r="H22" s="7">
         <v>1719</v>
       </c>
-      <c r="H22" s="7">
+      <c r="I22" s="7">
         <v>3</v>
       </c>
-      <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12">
+      <c r="K22" s="3"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12">
         <v>2140</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>59</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="7">
+        <v>73</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="7">
         <v>35</v>
       </c>
-      <c r="E23" s="7">
+      <c r="F23" s="7">
         <v>1717</v>
       </c>
-      <c r="F23" s="5">
+      <c r="G23" s="5">
         <v>1717</v>
       </c>
-      <c r="G23" s="7">
+      <c r="H23" s="7">
         <v>1717</v>
       </c>
-      <c r="H23" s="7">
+      <c r="I23" s="7">
         <v>0</v>
       </c>
-      <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12">
+      <c r="K23" s="3"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12">
         <v>2215</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>60</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="5">
+        <v>60</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="7">
         <v>35</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="7">
-        <v>35</v>
-      </c>
-      <c r="E24" s="7">
+      <c r="F24" s="7">
         <v>1718</v>
       </c>
-      <c r="F24" s="5">
+      <c r="G24" s="5">
         <v>1718</v>
       </c>
-      <c r="G24" s="7">
+      <c r="H24" s="7">
         <v>1725</v>
       </c>
-      <c r="H24" s="7">
+      <c r="I24" s="7">
         <v>6</v>
       </c>
-      <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12">
+      <c r="K24" s="3"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12">
         <v>2290</v>
       </c>
     </row>
@@ -3026,277 +3308,299 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="4" width="8.5546875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" customWidth="1"/>
-    <col min="11" max="12" width="8.88671875" style="13"/>
+    <col min="2" max="2" width="28.21875" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="16"/>
+    <col min="4" max="5" width="8.5546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" customWidth="1"/>
+    <col min="12" max="13" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>96</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>61</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="7">
+        <v>66</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="6">
+      <c r="D2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="7">
+        <v>43</v>
+      </c>
+      <c r="F2" s="6">
         <v>1718</v>
       </c>
-      <c r="F2" s="9">
+      <c r="G2" s="9">
         <v>1718</v>
       </c>
-      <c r="G2" s="7">
+      <c r="H2" s="7">
         <v>1746</v>
       </c>
-      <c r="H2" s="6">
+      <c r="I2" s="6">
         <v>27</v>
-      </c>
-      <c r="I2" s="6">
-        <v>1740</v>
       </c>
       <c r="J2" s="6">
         <v>1740</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="L2" s="6">
+      <c r="K2" s="6">
+        <v>1740</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="6">
         <v>900</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>62</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="7">
+        <v>67</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="7">
         <v>61</v>
       </c>
-      <c r="E3" s="6">
+      <c r="F3" s="6">
         <v>1714</v>
       </c>
-      <c r="F3" s="6">
+      <c r="G3" s="6">
         <v>1739</v>
       </c>
-      <c r="G3" s="7">
+      <c r="H3" s="7">
         <v>1776</v>
       </c>
-      <c r="H3" s="6">
+      <c r="I3" s="6">
         <v>61</v>
       </c>
-      <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12">
+      <c r="K3" s="3"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12">
         <v>970</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>63</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="7">
+        <v>68</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="7">
         <v>48</v>
       </c>
-      <c r="E4" s="7">
+      <c r="F4" s="7">
         <v>1714</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>1714</v>
       </c>
-      <c r="G4" s="7">
+      <c r="H4" s="7">
         <v>1728</v>
       </c>
-      <c r="H4" s="6">
+      <c r="I4" s="6">
         <v>14</v>
       </c>
-      <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12">
+      <c r="K4" s="3"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12">
         <v>1325</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>64</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="7">
+        <v>69</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="7">
         <v>48</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1715</v>
       </c>
       <c r="F5" s="7">
         <v>1715</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="7">
+        <v>1715</v>
+      </c>
+      <c r="H5" s="6">
         <v>1730</v>
       </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
       <c r="I5" s="6">
+        <v>14</v>
+      </c>
+      <c r="J5" s="6">
         <v>1727</v>
       </c>
-      <c r="J5" s="6">
+      <c r="K5" s="6">
         <v>1730</v>
       </c>
-      <c r="K5" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="L5" s="6">
+      <c r="L5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="6">
         <v>1395</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>65</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="6">
+        <v>70</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="6">
         <v>54</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1728</v>
       </c>
       <c r="F6" s="6">
         <v>1728</v>
       </c>
       <c r="G6" s="6">
+        <v>1728</v>
+      </c>
+      <c r="H6" s="6">
         <v>1762</v>
       </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
       <c r="I6" s="6">
-        <v>1762</v>
+        <v>38</v>
       </c>
       <c r="J6" s="6">
         <v>1762</v>
       </c>
-      <c r="K6" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="L6" s="6">
+      <c r="K6" s="6">
+        <v>1762</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="6">
         <v>1800</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>66</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="7">
+        <v>71</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="7">
         <v>65</v>
       </c>
-      <c r="E7" s="6">
+      <c r="F7" s="6">
         <v>1729</v>
       </c>
-      <c r="F7" s="9">
+      <c r="G7" s="9">
         <v>1745</v>
       </c>
-      <c r="G7" s="6">
+      <c r="H7" s="6">
         <v>1796</v>
       </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
       <c r="I7" s="6">
+        <v>65</v>
+      </c>
+      <c r="J7" s="6">
         <v>1762</v>
       </c>
-      <c r="J7" s="6">
+      <c r="K7" s="6">
         <v>1796</v>
       </c>
-      <c r="K7" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="L7" s="6">
+      <c r="L7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="6">
         <v>1730</v>
       </c>
     </row>
@@ -3307,330 +3611,358 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5546875" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" customWidth="1"/>
-    <col min="11" max="12" width="8.88671875" style="13"/>
+    <col min="2" max="2" width="25.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" customWidth="1"/>
+    <col min="12" max="13" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>67</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="7">
+        <v>58</v>
+      </c>
+      <c r="C2" s="5">
+        <v>67</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="7">
         <v>62</v>
       </c>
-      <c r="E2" s="7">
+      <c r="F2" s="7">
         <v>1740</v>
       </c>
-      <c r="F2" s="6">
+      <c r="G2" s="6">
         <v>1740</v>
       </c>
-      <c r="G2" s="7">
+      <c r="H2" s="7">
         <v>1764</v>
       </c>
-      <c r="H2" s="6">
+      <c r="I2" s="6">
         <v>23</v>
-      </c>
-      <c r="I2" s="6">
-        <v>1740</v>
       </c>
       <c r="J2" s="6">
         <v>1740</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="L2" s="6">
+      <c r="K2" s="6">
+        <v>1740</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="6">
         <v>785</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>68</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="7">
+        <v>59</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7">
         <v>62</v>
       </c>
-      <c r="E3" s="7">
+      <c r="F3" s="7">
         <v>1741</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>1741</v>
       </c>
-      <c r="G3" s="6">
+      <c r="H3" s="6">
         <v>1807</v>
       </c>
-      <c r="H3" s="6">
+      <c r="I3" s="6">
         <v>65</v>
       </c>
-      <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12">
+      <c r="K3" s="3"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12">
         <v>860</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>69</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="7">
+        <v>60</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="7">
         <v>62</v>
       </c>
-      <c r="E4" s="7">
+      <c r="F4" s="7">
         <v>1743</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>1743</v>
       </c>
-      <c r="G4" s="6">
+      <c r="H4" s="6">
         <v>1782</v>
       </c>
-      <c r="H4" s="6">
+      <c r="I4" s="6">
         <v>39</v>
       </c>
-      <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12">
+      <c r="K4" s="3"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12">
         <v>935</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>70</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="7">
+        <v>61</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="7">
         <v>62</v>
       </c>
-      <c r="E5" s="7">
+      <c r="F5" s="7">
         <v>1745</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>1745</v>
       </c>
-      <c r="G5" s="6">
+      <c r="H5" s="6">
         <v>1798</v>
       </c>
-      <c r="H5" s="6">
+      <c r="I5" s="6">
         <v>52</v>
       </c>
-      <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12">
+      <c r="K5" s="3"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12">
         <v>1010</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>71</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="7">
         <v>62</v>
       </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="E6" s="7">
+        <v>62</v>
+      </c>
+      <c r="F6" s="7">
         <v>1746</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <v>1746</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="6">
         <v>1787</v>
       </c>
-      <c r="H6" s="6">
+      <c r="I6" s="6">
         <v>41</v>
       </c>
-      <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12">
+      <c r="K6" s="3"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12">
         <v>1085</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>73</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="7">
+        <v>63</v>
+      </c>
+      <c r="C7" s="5">
+        <v>73</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="7">
         <v>66</v>
       </c>
-      <c r="E7" s="7">
+      <c r="F7" s="7">
         <v>1754</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>1754</v>
       </c>
-      <c r="G7" s="6">
+      <c r="H7" s="6">
         <v>1801</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="6">
         <v>46</v>
       </c>
-      <c r="I7" s="6">
+      <c r="J7" s="6">
         <v>1796</v>
       </c>
-      <c r="J7" s="6">
+      <c r="K7" s="6">
         <v>1801</v>
       </c>
-      <c r="K7" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="L7" s="6">
+      <c r="L7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="6">
         <v>1765</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>74</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="7">
+        <v>64</v>
+      </c>
+      <c r="C8" s="5">
+        <v>74</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="7">
         <v>73</v>
       </c>
-      <c r="E8" s="6">
+      <c r="F8" s="6">
         <v>1755</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <v>1773</v>
       </c>
-      <c r="G8" s="7">
+      <c r="H8" s="7">
         <v>1776</v>
       </c>
-      <c r="H8" s="7">
+      <c r="I8" s="7">
         <v>20</v>
       </c>
-      <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12">
+      <c r="K8" s="3"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12">
         <v>1695</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>75</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="7">
+        <v>65</v>
+      </c>
+      <c r="C9" s="5">
+        <v>75</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="7">
         <v>73</v>
       </c>
-      <c r="E9" s="6">
+      <c r="F9" s="6">
         <v>1759</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <v>1776</v>
       </c>
-      <c r="G9" s="6">
+      <c r="H9" s="6">
         <v>1828</v>
       </c>
-      <c r="H9" s="6">
+      <c r="I9" s="6">
         <v>69</v>
       </c>
-      <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12">
+      <c r="K9" s="3"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12">
         <v>1835</v>
       </c>
     </row>
@@ -3641,521 +3973,567 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="4" width="10.21875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" customWidth="1"/>
-    <col min="11" max="12" width="8.88671875" style="13"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" style="5" customWidth="1"/>
+    <col min="4" max="5" width="10.21875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+    <col min="12" max="13" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="15">
+        <v>45</v>
+      </c>
+      <c r="C2" s="9">
+        <v>77</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="15">
         <v>75</v>
       </c>
-      <c r="E2" s="6">
+      <c r="F2" s="6">
         <v>1777</v>
       </c>
-      <c r="F2" s="9">
+      <c r="G2" s="9">
         <v>1777</v>
       </c>
-      <c r="G2" s="6">
+      <c r="H2" s="6">
         <v>1825</v>
       </c>
-      <c r="H2" s="6">
+      <c r="I2" s="6">
         <v>47</v>
       </c>
-      <c r="I2" s="6">
+      <c r="J2" s="6">
         <v>1801</v>
       </c>
-      <c r="J2" s="6">
+      <c r="K2" s="6">
         <v>1825</v>
       </c>
-      <c r="K2" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="L2" s="6">
+      <c r="L2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="6">
         <v>1275</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="15">
+        <v>46</v>
+      </c>
+      <c r="C3" s="9">
         <v>76</v>
       </c>
-      <c r="E3" s="6">
+      <c r="D3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="15">
+        <v>77</v>
+      </c>
+      <c r="F3" s="6">
         <v>1779</v>
       </c>
-      <c r="F3" s="9">
+      <c r="G3" s="9">
         <v>1793</v>
       </c>
-      <c r="G3" s="6">
+      <c r="H3" s="6">
         <v>1826</v>
       </c>
-      <c r="H3" s="6">
+      <c r="I3" s="6">
         <v>47</v>
       </c>
-      <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14">
+      <c r="K3" s="4"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14">
         <v>1205</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="9">
+        <v>78</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="15">
+        <v>75</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1779</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1779</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1831</v>
+      </c>
+      <c r="I4" s="6">
         <v>52</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="15">
-        <v>75</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1779</v>
-      </c>
-      <c r="F4" s="9">
-        <v>1779</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1831</v>
-      </c>
-      <c r="H4" s="6">
-        <v>52</v>
-      </c>
-      <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14">
+      <c r="K4" s="4"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14">
         <v>1425</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>79</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="15">
+        <v>48</v>
+      </c>
+      <c r="C5" s="9">
+        <v>79</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="15">
         <v>78</v>
       </c>
-      <c r="E5" s="6">
+      <c r="F5" s="6">
         <v>1781</v>
       </c>
-      <c r="F5" s="9">
+      <c r="G5" s="9">
         <v>1796</v>
       </c>
-      <c r="G5" s="6">
+      <c r="H5" s="6">
         <v>1860</v>
       </c>
-      <c r="H5" s="6">
+      <c r="I5" s="6">
         <v>78</v>
       </c>
-      <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14">
+      <c r="K5" s="4"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14">
         <v>1355</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>80</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="15">
+        <v>49</v>
+      </c>
+      <c r="C6" s="9">
+        <v>80</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="15">
         <v>75</v>
       </c>
-      <c r="E6" s="6">
+      <c r="F6" s="6">
         <v>1783</v>
       </c>
-      <c r="F6" s="9">
+      <c r="G6" s="9">
         <v>1783</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="6">
         <v>1801</v>
       </c>
-      <c r="H6" s="6">
+      <c r="I6" s="6">
         <v>17</v>
       </c>
-      <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14">
+      <c r="K6" s="4"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14">
         <v>1575</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>81</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="15">
+        <v>50</v>
+      </c>
+      <c r="C7" s="9">
+        <v>81</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="15">
         <v>80</v>
       </c>
-      <c r="E7" s="6">
+      <c r="F7" s="6">
         <v>1776</v>
       </c>
-      <c r="F7" s="9">
+      <c r="G7" s="9">
         <v>1799</v>
       </c>
-      <c r="G7" s="6">
+      <c r="H7" s="6">
         <v>1847</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="6">
         <v>70</v>
       </c>
-      <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14">
+      <c r="K7" s="4"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14">
         <v>1505</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>82</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="15">
+        <v>51</v>
+      </c>
+      <c r="C8" s="9">
+        <v>82</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="15">
         <v>75</v>
       </c>
-      <c r="E8" s="6">
+      <c r="F8" s="6">
         <v>1784</v>
       </c>
-      <c r="F8" s="9">
+      <c r="G8" s="9">
         <v>1784</v>
       </c>
-      <c r="G8" s="6">
+      <c r="H8" s="6">
         <v>1803</v>
       </c>
-      <c r="H8" s="6">
+      <c r="I8" s="6">
         <v>18</v>
       </c>
-      <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14">
+      <c r="K8" s="4"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14">
         <v>1725</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>83</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="15">
+        <v>52</v>
+      </c>
+      <c r="C9" s="9">
+        <v>83</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="15">
         <v>82</v>
       </c>
-      <c r="E9" s="6">
+      <c r="F9" s="6">
         <v>1778</v>
       </c>
-      <c r="F9" s="9">
+      <c r="G9" s="9">
         <v>1799</v>
       </c>
-      <c r="G9" s="6">
+      <c r="H9" s="6">
         <v>1819</v>
       </c>
-      <c r="H9" s="6">
+      <c r="I9" s="6">
         <v>41</v>
       </c>
-      <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14">
+      <c r="K9" s="4"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14">
         <v>1655</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>84</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="15">
+        <v>53</v>
+      </c>
+      <c r="C10" s="9">
+        <v>84</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="15">
         <v>75</v>
       </c>
-      <c r="E10" s="6">
+      <c r="F10" s="6">
         <v>1786</v>
       </c>
-      <c r="F10" s="9">
+      <c r="G10" s="9">
         <v>1786</v>
       </c>
-      <c r="G10" s="6">
+      <c r="H10" s="6">
         <v>1859</v>
       </c>
-      <c r="H10" s="6">
+      <c r="I10" s="6">
         <v>73</v>
       </c>
-      <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14">
+      <c r="K10" s="4"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14">
         <v>1800</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>85</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="15">
+        <v>54</v>
+      </c>
+      <c r="C11" s="9">
+        <v>85</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="15">
         <v>75</v>
       </c>
-      <c r="E11" s="6">
+      <c r="F11" s="6">
         <v>1788</v>
       </c>
-      <c r="F11" s="9">
+      <c r="G11" s="9">
         <v>1788</v>
       </c>
-      <c r="G11" s="6">
+      <c r="H11" s="6">
         <v>1819</v>
       </c>
-      <c r="H11" s="6">
+      <c r="I11" s="6">
         <v>30</v>
       </c>
-      <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14">
+      <c r="K11" s="4"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14">
         <v>1875</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>86</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="15">
+        <v>55</v>
+      </c>
+      <c r="C12" s="9">
+        <v>86</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="15">
         <v>75</v>
       </c>
-      <c r="E12" s="6">
+      <c r="F12" s="6">
         <v>1792</v>
       </c>
-      <c r="F12" s="9">
+      <c r="G12" s="9">
         <v>1792</v>
       </c>
-      <c r="G12" s="6">
+      <c r="H12" s="6">
         <v>1795</v>
       </c>
-      <c r="H12" s="6">
+      <c r="I12" s="6">
         <v>2</v>
       </c>
-      <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14">
+      <c r="K12" s="4"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14">
         <v>1950</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>87</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="15">
+        <v>56</v>
+      </c>
+      <c r="C13" s="9">
+        <v>87</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="15">
         <v>75</v>
       </c>
-      <c r="E13" s="6">
+      <c r="F13" s="6">
         <v>1795</v>
       </c>
-      <c r="F13" s="9">
+      <c r="G13" s="9">
         <v>1795</v>
       </c>
-      <c r="G13" s="6">
+      <c r="H13" s="6">
         <v>1865</v>
       </c>
-      <c r="H13" s="6">
+      <c r="I13" s="6">
         <v>70</v>
       </c>
-      <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14">
+      <c r="K13" s="4"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14">
         <v>2025</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>88</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="15">
+        <v>57</v>
+      </c>
+      <c r="C14" s="9">
+        <v>88</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="15">
         <v>75</v>
       </c>
-      <c r="E14" s="6">
+      <c r="F14" s="6">
         <v>1796</v>
       </c>
-      <c r="F14" s="9">
+      <c r="G14" s="9">
         <v>1796</v>
       </c>
-      <c r="G14" s="6">
+      <c r="H14" s="6">
         <v>1855</v>
       </c>
-      <c r="H14" s="6">
-        <v>0</v>
-      </c>
       <c r="I14" s="6">
+        <v>58</v>
+      </c>
+      <c r="J14" s="6">
         <v>1825</v>
       </c>
-      <c r="J14" s="6">
+      <c r="K14" s="6">
         <v>1855</v>
       </c>
-      <c r="K14" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="L14" s="6">
+      <c r="L14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="6">
         <v>2100</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>89</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="15">
+        <v>44</v>
+      </c>
+      <c r="C15" s="9">
+        <v>89</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="15">
         <v>75</v>
       </c>
-      <c r="E15" s="6">
+      <c r="F15" s="6">
         <v>1798</v>
       </c>
-      <c r="F15" s="9">
+      <c r="G15" s="9">
         <v>1798</v>
       </c>
-      <c r="G15" s="6">
+      <c r="H15" s="6">
         <v>1849</v>
       </c>
-      <c r="H15" s="6">
+      <c r="I15" s="6">
         <v>51</v>
       </c>
-      <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14">
+      <c r="K15" s="4"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14">
         <v>2175</v>
       </c>
     </row>
